--- a/biology/Médecine/Prix_Shaw/Prix_Shaw.xlsx
+++ b/biology/Médecine/Prix_Shaw/Prix_Shaw.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,44 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Les prix Shaw sont une série de récompenses scientifiques décernés à Hong Kong chaque année depuis 2004 par la fondation Shaw. Parfois surnommés les « prix Nobel asiatiques[1],[2],[3],[4] », les prix sont accompagnés d'une récompense d'un million de dollars américains de la  fondation philanthropique Shaw, créée par Run Run Shaw, le magnat des médias hongkongais et qui porte son nom.
-Le prix récompense des scientifiques dans trois domaines : l'astronomie, les sciences biologiques et médicales et les mathématiques[5].
+Les prix Shaw sont une série de récompenses scientifiques décernés à Hong Kong chaque année depuis 2004 par la fondation Shaw. Parfois surnommés les « prix Nobel asiatiques », les prix sont accompagnés d'une récompense d'un million de dollars américains de la  fondation philanthropique Shaw, créée par Run Run Shaw, le magnat des médias hongkongais et qui porte son nom.
+Le prix récompense des scientifiques dans trois domaines : l'astronomie, les sciences biologiques et médicales et les mathématiques.
 </t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Prix_Shaw</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Prix_Shaw</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Liste des récipiendaires</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Prix Shaw en astronomie
-Prix Shaw en sciences de la vie et médecine
-Prix Shaw de sciences mathématiques</t>
         </is>
       </c>
     </row>
